--- a/Dataset/UNESCO_AI_Ethics_Principles.xlsx
+++ b/Dataset/UNESCO_AI_Ethics_Principles.xlsx
@@ -588,9 +588,7 @@
       <c r="C30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="3">
-        <v>30.0</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
